--- a/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-4,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,85</t>
+          <t>-3,61; 4,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,93</t>
+          <t>-4,76; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,66</t>
+          <t>-7,41; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,05</t>
+          <t>-3,59; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,54</t>
+          <t>-3,94; 3,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 13,16</t>
+          <t>-7,58; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,0</t>
+          <t>-2,1; 3,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,09</t>
+          <t>-3,1; 2,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,47</t>
+          <t>-6,63; 0,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,64%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-63,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,93%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>-63,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,21%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-63,65%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 79,5</t>
+          <t>-43,66; 107,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 143,94</t>
+          <t>-53,82; 74,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 225,66</t>
+          <t>-100,0; 59,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,25; 5,03</t>
+          <t>-43,21; 124,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 81,24</t>
+          <t>-46,93; 90,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 294,01</t>
+          <t>-100,0; 121,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 2,24</t>
+          <t>-28,83; 73,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 78,72</t>
+          <t>-42,49; 47,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 125,77</t>
+          <t>-91,75; 24,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,83</t>
+          <t>-3,77; 1,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,26</t>
+          <t>-2,23; 3,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,92</t>
+          <t>-4,71; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,92</t>
+          <t>-6,42; -0,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,66</t>
+          <t>-4,09; 3,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 3,06</t>
+          <t>-3,53; 13,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,53</t>
+          <t>-4,2; -0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,25</t>
+          <t>-2,04; 3,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 0,8</t>
+          <t>-3,73; 5,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>-21,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-63,52%</t>
+          <t>-38,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-50,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,8%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>-39,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-63,65%</t>
+          <t>-0,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 107,3</t>
+          <t>-65,9; 79,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 74,63</t>
+          <t>-43,87; 143,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 59,82</t>
+          <t>-100,0; 225,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 124,48</t>
+          <t>-77,25; 5,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 90,72</t>
+          <t>-51,05; 81,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,34</t>
+          <t>-51,57; 294,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 73,0</t>
+          <t>-65,25; 2,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 47,66</t>
+          <t>-32,45; 78,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,75; 24,01</t>
+          <t>-65,5; 125,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,18</t>
+          <t>-2,53; 14,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,39</t>
+          <t>-7,55; 10,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 5,89</t>
+          <t>-16,91; 7,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 12,56</t>
+          <t>-3,4; 14,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,32</t>
+          <t>-5,25; 12,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 12,33</t>
+          <t>-14,89; 14,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,32</t>
+          <t>-0,33; 11,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,17</t>
+          <t>-3,2; 8,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,8</t>
+          <t>-13,73; 5,89</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-32,1%</t>
+          <t>-36,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,65%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,38%</t>
+          <t>-25,51%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 92,48</t>
+          <t>-11,01; 95,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 57,22</t>
+          <t>-29,62; 72,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,7; 48,15</t>
+          <t>-78,95; 53,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 119,53</t>
+          <t>-14,67; 96,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 98,74</t>
+          <t>-22,02; 86,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 116,35</t>
+          <t>-68,62; 85,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 86,41</t>
+          <t>-1,67; 71,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 58,83</t>
+          <t>-14,05; 53,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 44,61</t>
+          <t>-64,75; 33,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-3,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,83</t>
+          <t>-3,22; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 3,26</t>
+          <t>-3,79; 4,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,92</t>
+          <t>-7,74; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,92</t>
+          <t>-3,35; 5,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,66</t>
+          <t>-4,68; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 3,06</t>
+          <t>-7,94; 6,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,53</t>
+          <t>-1,92; 3,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,25</t>
+          <t>-3,04; 2,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 0,8</t>
+          <t>-6,93; 1,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-63,52%</t>
+          <t>-40,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-63,8%</t>
+          <t>-59,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,65%</t>
+          <t>-48,72%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 107,3</t>
+          <t>-33,45; 81,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 74,63</t>
+          <t>-38,66; 72,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 59,82</t>
+          <t>-85,48; 72,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 124,48</t>
+          <t>-40,45; 96,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 90,72</t>
+          <t>-54,23; 65,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,34</t>
+          <t>-100,0; 146,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 73,0</t>
+          <t>-21,88; 63,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 47,66</t>
+          <t>-34,92; 43,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-91,75; 24,01</t>
+          <t>-84,69; 46,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,85</t>
+          <t>-5,65; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,93</t>
+          <t>-4,61; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,66</t>
+          <t>-8,32; -2,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,05</t>
+          <t>-5,06; 4,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,54</t>
+          <t>-6,13; 2,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 13,16</t>
+          <t>-4,77; 12,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; -0,0</t>
+          <t>-4,2; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,09</t>
+          <t>-3,82; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,47</t>
+          <t>-5,55; 3,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,64%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-38,12%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,93%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-39,21%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-40,56%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 79,5</t>
+          <t>-78,29; 122,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 143,94</t>
+          <t>-65,72; 162,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 225,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,25; 5,03</t>
+          <t>-63,09; 155,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 81,24</t>
+          <t>-70,21; 102,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 294,01</t>
+          <t>-80,91; 472,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 2,24</t>
+          <t>-59,59; 58,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 78,72</t>
+          <t>-54,64; 70,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 125,77</t>
+          <t>-100,0; 120,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,23</t>
+          <t>-3,37; 3,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,14</t>
+          <t>-3,69; 3,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -0,63</t>
+          <t>-5,23; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,01</t>
+          <t>-6,95; 0,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,36</t>
+          <t>-3,19; 7,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 4,69</t>
+          <t>-5,7; 14,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,17</t>
+          <t>-3,75; 1,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,46</t>
+          <t>-1,95; 3,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,16</t>
+          <t>-4,14; 6,35</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,46%</t>
+          <t>-12,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>-51,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>-1,58%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 60,79</t>
+          <t>-59,04; 165,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 44,36</t>
+          <t>-65,27; 177,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,95; -1,02</t>
+          <t>-100,0; 298,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 56,93</t>
+          <t>-83,13; 31,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 47,06</t>
+          <t>-42,94; 182,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 61,95</t>
+          <t>-100,0; 389,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 41,77</t>
+          <t>-58,61; 42,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 31,83</t>
+          <t>-34,81; 99,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 2,22</t>
+          <t>-75,99; 150,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 4,21</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 3,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; -0,71</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 3,88</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 3,47</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 3,52</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 3,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 2,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 0,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-50,46%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,78%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-34,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 59,12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 42,73</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-76,81; -9,06</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 54,13</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 49,06</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-57,81; 44,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 44,47</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 30,75</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-59,82; 1,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 14,48</t>
+          <t>-2,52; 14,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 10,74</t>
+          <t>-6,47; 10,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 7,83</t>
+          <t>-16,82; 8,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 14,04</t>
+          <t>-3,58; 14,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 12,34</t>
+          <t>-4,42; 12,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 14,79</t>
+          <t>-15,46; 14,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 11,57</t>
+          <t>-0,39; 11,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,72</t>
+          <t>-3,42; 8,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 5,89</t>
+          <t>-12,9; 5,76</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 95,07</t>
+          <t>-10,68; 97,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 72,56</t>
+          <t>-27,23; 70,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,95; 53,03</t>
+          <t>-76,5; 57,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 96,97</t>
+          <t>-14,49; 95,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 86,01</t>
+          <t>-19,88; 87,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 85,1</t>
+          <t>-69,96; 85,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 71,06</t>
+          <t>-2,25; 70,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 53,24</t>
+          <t>-14,78; 54,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 33,74</t>
+          <t>-61,09; 33,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,13</t>
+          <t>-3,06; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,34</t>
+          <t>-3,39; 5,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,06</t>
+          <t>-7,9; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,14</t>
+          <t>-3,27; 4,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,28</t>
+          <t>-4,55; 3,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,76</t>
+          <t>-8,1; 5,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,82</t>
+          <t>-1,86; 3,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,62</t>
+          <t>-2,89; 2,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,79</t>
+          <t>-6,97; 1,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 81,17</t>
+          <t>-30,83; 93,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 72,08</t>
+          <t>-35,74; 84,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,48; 72,76</t>
+          <t>-86,48; 96,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 96,2</t>
+          <t>-37,74; 91,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 65,28</t>
+          <t>-52,94; 64,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,13</t>
+          <t>-100,0; 127,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 63,69</t>
+          <t>-22,39; 64,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 43,24</t>
+          <t>-32,06; 49,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-84,69; 46,36</t>
+          <t>-86,95; 34,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,93</t>
+          <t>-5,79; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,74</t>
+          <t>-4,65; 3,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -2,3</t>
+          <t>-9,45; -2,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,45</t>
+          <t>-5,16; 4,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 2,65</t>
+          <t>-6,25; 2,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 12,85</t>
+          <t>-4,78; 12,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,89</t>
+          <t>-4,07; 2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,11</t>
+          <t>-3,92; 2,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,23</t>
+          <t>-5,13; 4,42</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 122,23</t>
+          <t>-81,98; 116,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 162,3</t>
+          <t>-64,66; 197,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,09; 155,45</t>
+          <t>-67,02; 164,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 102,24</t>
+          <t>-71,96; 95,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 472,81</t>
+          <t>-86,86; 485,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 58,0</t>
+          <t>-60,41; 62,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 70,58</t>
+          <t>-58,54; 61,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,36</t>
+          <t>-88,69; 123,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,93</t>
+          <t>-3,46; 3,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,93</t>
+          <t>-3,94; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,57</t>
+          <t>-4,64; 8,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,59</t>
+          <t>-7,05; 1,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 7,11</t>
+          <t>-2,82; 7,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 14,13</t>
+          <t>-5,88; 15,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,43</t>
+          <t>-4,11; 1,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,91</t>
+          <t>-2,14; 4,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,35</t>
+          <t>-4,45; 6,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 165,46</t>
+          <t>-63,6; 179,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,27; 177,87</t>
+          <t>-70,94; 194,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 298,32</t>
+          <t>-100,0; 339,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-83,13; 31,35</t>
+          <t>-84,17; 40,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 182,23</t>
+          <t>-38,96; 179,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 389,34</t>
+          <t>-100,0; 432,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 42,83</t>
+          <t>-63,36; 41,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 99,95</t>
+          <t>-32,97; 117,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,99; 150,04</t>
+          <t>-77,05; 179,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,21</t>
+          <t>-1,03; 3,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,08</t>
+          <t>-2,28; 2,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -0,71</t>
+          <t>-7,11; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,88</t>
+          <t>-1,53; 3,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,47</t>
+          <t>-1,89; 3,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,52</t>
+          <t>-4,96; 4,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,41</t>
+          <t>-0,31; 3,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,35</t>
+          <t>-1,34; 2,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,08</t>
+          <t>-5,43; -0,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 59,12</t>
+          <t>-10,66; 56,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 42,73</t>
+          <t>-23,9; 37,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-76,81; -9,06</t>
+          <t>-75,92; -3,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 54,13</t>
+          <t>-15,08; 52,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 49,06</t>
+          <t>-18,94; 47,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,81; 44,71</t>
+          <t>-54,74; 52,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 44,47</t>
+          <t>-3,56; 43,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 30,75</t>
+          <t>-14,2; 30,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 1,4</t>
+          <t>-60,48; 0,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,34 +632,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,63</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,94</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>2,06</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-7,16</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5,78</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-5,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 14,74</t>
+          <t>-3,42; 14,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 10,15</t>
+          <t>-5,23; 11,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 8,59</t>
+          <t>-15,54; 12,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 14,26</t>
+          <t>-3,57; 14,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 12,95</t>
+          <t>-6,91; 10,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 14,65</t>
+          <t>-17,82; 7,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 11,73</t>
+          <t>-0,09; 12,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,84</t>
+          <t>-3,69; 8,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 5,76</t>
+          <t>-14,81; 5,85</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-14,65%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>30,24%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>10,48%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-36,46%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,47%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>-36,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,51%</t>
+          <t>-26,21%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 97,18</t>
+          <t>-14,05; 99,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 70,15</t>
+          <t>-21,71; 85,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,5; 57,55</t>
+          <t>-72,09; 72,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 95,84</t>
+          <t>-14,76; 93,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 87,05</t>
+          <t>-27,86; 73,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,96; 85,4</t>
+          <t>-79,52; 43,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 70,95</t>
+          <t>-1,53; 72,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 54,38</t>
+          <t>-14,63; 56,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 33,59</t>
+          <t>-66,5; 31,89</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,25</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,56</t>
+          <t>-3,0; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,05</t>
+          <t>-4,5; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 4,53</t>
+          <t>-8,44; 6,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,58</t>
+          <t>-2,88; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 3,19</t>
+          <t>-3,62; 4,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,65</t>
+          <t>-8,2; 4,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,86</t>
+          <t>-1,78; 3,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,84</t>
+          <t>-2,96; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,98</t>
+          <t>-7,11; 1,48</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-11,48%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-61,04%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,49%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>4,98%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-40,88%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,48%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-59,78%</t>
+          <t>-42,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,72%</t>
+          <t>-50,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 93,01</t>
+          <t>-35,23; 109,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 84,32</t>
+          <t>-50,95; 74,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,48; 96,96</t>
+          <t>-100,0; 123,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 91,38</t>
+          <t>-30,37; 85,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 64,45</t>
+          <t>-36,69; 76,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,07</t>
+          <t>-86,3; 78,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 64,1</t>
+          <t>-20,57; 65,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 49,68</t>
+          <t>-33,74; 39,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,95; 34,01</t>
+          <t>-87,2; 29,04</t>
         </is>
       </c>
     </row>
@@ -1064,34 +1064,34 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,68</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,4</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-4,75</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>-0,87</t>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,49</t>
+          <t>-4,9; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,78</t>
+          <t>-6,07; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -2,31</t>
+          <t>-5,4; 12,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,53</t>
+          <t>-6,18; 1,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,41</t>
+          <t>-5,07; 3,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 12,89</t>
+          <t>-8,8; -2,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,18</t>
+          <t>-4,31; 2,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,07</t>
+          <t>-4,13; 2,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,42</t>
+          <t>-5,42; 2,9</t>
         </is>
       </c>
     </row>
@@ -1170,34 +1170,34 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,38%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-22,38%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-35,43%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-8,32%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-22,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21,01%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-17,26%</t>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,56%</t>
+          <t>-42,99%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 116,18</t>
+          <t>-66,62; 170,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 197,48</t>
+          <t>-70,23; 108,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 433,22</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-81,55; 114,46</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-69,28; 157,81</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-67,02; 164,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-71,96; 95,82</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-86,86; 485,84</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 62,24</t>
+          <t>-62,24; 81,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 61,91</t>
+          <t>-56,49; 77,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-88,69; 123,75</t>
+          <t>-89,49; 111,87</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,1</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 3,98</t>
+          <t>-7,35; 0,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,71</t>
+          <t>-2,5; 7,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 8,76</t>
+          <t>-5,88; 15,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 1,01</t>
+          <t>-3,22; 4,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 7,2</t>
+          <t>-3,45; 3,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 15,65</t>
+          <t>-4,64; 7,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,31</t>
+          <t>-4,19; 1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,09</t>
+          <t>-2,11; 4,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,83</t>
+          <t>-4,23; 5,58</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-51,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>5,47%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-2,4%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-12,47%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-51,0%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>33,33%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>-15,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>-4,56%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 179,68</t>
+          <t>-84,86; 25,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 194,91</t>
+          <t>-35,7; 185,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 339,47</t>
+          <t>-100,0; 364,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-84,17; 40,41</t>
+          <t>-57,17; 184,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 179,58</t>
+          <t>-62,24; 152,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 432,73</t>
+          <t>-100,0; 356,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,36; 41,85</t>
+          <t>-64,6; 41,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 117,2</t>
+          <t>-34,37; 129,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-77,05; 179,95</t>
+          <t>-76,29; 152,3</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,64</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,22</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-3,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,96</t>
+          <t>-1,29; 4,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,72</t>
+          <t>-1,65; 3,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,37</t>
+          <t>-5,49; 4,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,82</t>
+          <t>-1,02; 4,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,6</t>
+          <t>-2,2; 3,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 4,09</t>
+          <t>-7,08; -0,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,29</t>
+          <t>-0,33; 3,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,32</t>
+          <t>-1,25; 2,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -0,06</t>
+          <t>-5,24; -0,16</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-16,52%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>19,67%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>4,67%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-50,46%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>-51,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>-36,23%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 56,71</t>
+          <t>-13,43; 56,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 37,52</t>
+          <t>-16,95; 47,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,92; -3,05</t>
+          <t>-60,37; 57,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 52,93</t>
+          <t>-10,9; 60,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 47,82</t>
+          <t>-23,1; 44,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,74; 52,62</t>
+          <t>-76,14; -5,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 43,74</t>
+          <t>-3,49; 41,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 30,26</t>
+          <t>-13,75; 31,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 0,79</t>
+          <t>-59,14; -1,87</t>
         </is>
       </c>
     </row>
